--- a/psm1/questions.xlsx
+++ b/psm1/questions.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\amazon-psm1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DFFDE-74F2-48ED-B37B-E5FB0B4FBA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="6675" windowHeight="1110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -89,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,12 +225,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,40 +263,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,6 +365,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -394,6 +417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,162 +609,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="11" width="5.77734375" customWidth="1"/>
+    <col min="12" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="24" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15"/>
-      <c r="N5" s="6" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="7" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="7" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -734,7 +756,7 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
@@ -751,23 +773,33 @@
       <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="N6" s="6">
+      <c r="L6" s="7"/>
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="O6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -777,7 +809,7 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -794,23 +826,35 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="N7" s="6">
+      <c r="L7" s="7"/>
+      <c r="N7" s="4">
         <v>2</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="O7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -820,7 +864,7 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,23 +877,33 @@
         <v>10</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="15"/>
-      <c r="N8" s="6">
+      <c r="L8" s="7"/>
+      <c r="N8" s="4">
         <v>3</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -859,7 +913,7 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,23 +928,33 @@
         <v>10</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="6">
+      <c r="L9" s="7"/>
+      <c r="N9" s="4">
         <v>4</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="O9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -900,7 +964,7 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,23 +977,35 @@
         <v>17</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="15"/>
-      <c r="N10" s="6">
+      <c r="L10" s="7"/>
+      <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -939,7 +1015,7 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -954,23 +1030,33 @@
         <v>10</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="15"/>
-      <c r="N11" s="6">
+      <c r="L11" s="7"/>
+      <c r="N11" s="4">
         <v>6</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="O11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -980,7 +1066,7 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
@@ -997,23 +1083,35 @@
       <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="N12" s="6">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="L12" s="7"/>
+      <c r="N12" s="4">
+        <v>7</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1023,7 +1121,7 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1038,23 +1136,33 @@
         <v>10</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="15"/>
-      <c r="N13" s="6">
-        <v>8</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="L13" s="7"/>
+      <c r="N13" s="4">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1064,7 +1172,7 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1079,23 +1187,33 @@
       <c r="K14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="N14" s="6">
+      <c r="L14" s="7"/>
+      <c r="N14" s="4">
         <v>9</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1105,7 +1223,7 @@
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1120,163 +1238,175 @@
         <v>8</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="15"/>
-      <c r="N15" s="6">
-        <v>10</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="L15" s="7"/>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3">
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3">
-        <v>7</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3">
+      <c r="E16" s="12"/>
+      <c r="F16" s="11">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11">
+        <v>7</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11">
         <v>6</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="16"/>
-      <c r="N16" s="6" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="O16" s="11">
+        <v>10</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11">
+        <v>10</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="11">
+        <v>10</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="11">
+        <v>10</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="11">
+        <v>6</v>
+      </c>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="11">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3">
+      <c r="C17" s="12"/>
+      <c r="D17" s="11">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3">
+      <c r="E17" s="12"/>
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3">
+      <c r="G17" s="12"/>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3">
+      <c r="I17" s="12"/>
+      <c r="J17" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="16"/>
-      <c r="N17" s="6" t="s">
+      <c r="K17" s="12"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="11">
         <f>(O16/10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11">
         <f t="shared" ref="Q17" si="1">(Q16/10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="11">
         <f t="shared" ref="S17" si="2">(S16/10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="11">
         <f t="shared" ref="U17" si="3">(U16/10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="11">
         <f t="shared" ref="W17" si="4">(W16/10)*100</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="14"/>
-      <c r="N18" s="6" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="9">
         <f>AVERAGE(O17:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -1296,8 +1426,6 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="J16:K16"/>
@@ -1315,6 +1443,8 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1322,24 +1452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/psm1/questions.xlsx
+++ b/psm1/questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DFFDE-74F2-48ED-B37B-E5FB0B4FBA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E6BAB-3BB0-4372-A024-67A8BDE470E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scrum Open Assesment" sheetId="2" r:id="rId2"/>
+    <sheet name="Mikhail Lapshin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
   <si>
     <t>Narrative &amp; Exam Guide</t>
   </si>
@@ -93,13 +93,19 @@
   </si>
   <si>
     <t>Two</t>
+  </si>
+  <si>
+    <t>Scrum Open</t>
+  </si>
+  <si>
+    <t>scrum-open-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +130,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,22 +283,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,35 +677,36 @@
     <col min="12" max="13" width="10.77734375" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" customWidth="1"/>
     <col min="15" max="24" width="5.77734375" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -671,30 +726,30 @@
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="7"/>
       <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -703,23 +758,23 @@
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="N5" s="4" t="s">
         <v>6</v>
@@ -727,23 +782,23 @@
       <c r="O5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="10"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="10"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="10"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1269,109 +1324,109 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11">
+      <c r="B16" s="14">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14">
         <v>6</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11">
-        <v>7</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11">
+      <c r="E16" s="15"/>
+      <c r="F16" s="14">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14">
         <v>6</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="8"/>
       <c r="N16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="11">
-        <v>10</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11">
-        <v>10</v>
-      </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11">
-        <v>10</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="11">
-        <v>10</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="11">
+      <c r="O16" s="14">
+        <v>10</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14">
+        <v>10</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="14">
+        <v>10</v>
+      </c>
+      <c r="T16" s="15"/>
+      <c r="U16" s="14">
+        <v>10</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="14">
         <v>6</v>
       </c>
-      <c r="X16" s="12"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="14">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11">
+      <c r="C17" s="15"/>
+      <c r="D17" s="14">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11">
+      <c r="E17" s="15"/>
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11">
+      <c r="G17" s="15"/>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11">
+      <c r="I17" s="15"/>
+      <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="8"/>
       <c r="N17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="14">
         <f>(O16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14">
         <f t="shared" ref="Q17" si="1">(Q16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="11">
+      <c r="R17" s="15"/>
+      <c r="S17" s="14">
         <f t="shared" ref="S17" si="2">(S16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="11">
+      <c r="T17" s="15"/>
+      <c r="U17" s="14">
         <f t="shared" ref="U17" si="3">(U16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="11">
+      <c r="V17" s="15"/>
+      <c r="W17" s="14">
         <f t="shared" ref="W17" si="4">(W16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="X17" s="12"/>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1381,15 +1436,15 @@
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="8"/>
       <c r="N18" s="4" t="s">
         <v>16</v>
@@ -1398,18 +1453,37 @@
         <f>AVERAGE(O17:X17)</f>
         <v>92</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="O18:X18"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="U16:V16"/>
@@ -1426,25 +1500,6 @@
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1453,13 +1508,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23">
+        <v>24</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="21">
+        <v>27</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23">
+        <f>(B3/30)*100</f>
+        <v>80</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4" si="0">(D3/30)*100</f>
+        <v>90</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4" si="1">(F3/30)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4" si="2">(H3/30)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4" si="3">(J3/30)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16">
+        <f>AVERAGE(B4:K4)</f>
+        <v>34</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/psm1/questions.xlsx
+++ b/psm1/questions.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\psm1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24E6BAB-3BB0-4372-A024-67A8BDE470E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Narrative &amp; Exam Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Scrum Open Assesment" sheetId="2" r:id="rId2"/>
     <sheet name="Mikhail Lapshin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,50 +274,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,26 +413,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,23 +448,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -663,50 +623,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="11" width="5.77734375" customWidth="1"/>
-    <col min="12" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="24" width="5.77734375" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -723,82 +683,82 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="11"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="7"/>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="9" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="9" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="11"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1324,147 +1284,166 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
-        <v>10</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14">
+      <c r="B16" s="13">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14">
-        <v>7</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14">
+      <c r="E16" s="14"/>
+      <c r="F16" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13">
         <v>6</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="8"/>
       <c r="N16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="14">
-        <v>10</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14">
-        <v>10</v>
-      </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="14">
-        <v>10</v>
-      </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="14">
-        <v>10</v>
-      </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="14">
+      <c r="O16" s="13">
+        <v>10</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13">
+        <v>10</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="13">
+        <v>10</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="13">
+        <v>10</v>
+      </c>
+      <c r="V16" s="14"/>
+      <c r="W16" s="13">
         <v>6</v>
       </c>
-      <c r="X16" s="15"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f>(B16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13">
         <f t="shared" ref="D17:J17" si="0">(D16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14">
+      <c r="E17" s="14"/>
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14">
+      <c r="G17" s="14"/>
+      <c r="H17" s="13">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="8"/>
       <c r="N17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <f>(O16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13">
         <f t="shared" ref="Q17" si="1">(Q16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="14">
+      <c r="R17" s="14"/>
+      <c r="S17" s="13">
         <f t="shared" ref="S17" si="2">(S16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="14">
+      <c r="T17" s="14"/>
+      <c r="U17" s="13">
         <f t="shared" ref="U17" si="3">(U16/10)*100</f>
         <v>100</v>
       </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="14">
+      <c r="V17" s="14"/>
+      <c r="W17" s="13">
         <f t="shared" ref="W17" si="4">(W16/10)*100</f>
         <v>60</v>
       </c>
-      <c r="X17" s="15"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <f>AVERAGE(B17:K17)</f>
         <v>78</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="8"/>
       <c r="N18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="11">
         <f>AVERAGE(O17:X17)</f>
         <v>92</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="11"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="O18:X18"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
@@ -1481,25 +1460,6 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="O18:X18"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1507,120 +1467,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>24</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="21">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23">
         <v>27</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="23">
+        <v>29</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23">
-        <f>(B3/30)*100</f>
+      <c r="B4" s="21">
+        <f>ROUND((B3/30)*100,2)</f>
         <v>80</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="21">
-        <f t="shared" ref="D4" si="0">(D3/30)*100</f>
+        <f t="shared" ref="D4" si="0">ROUND((D3/30)*100,2)</f>
         <v>90</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21">
-        <f t="shared" ref="F4" si="1">(F3/30)*100</f>
-        <v>0</v>
+        <f t="shared" ref="F4" si="1">ROUND((F3/30)*100,2)</f>
+        <v>96.67</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="21">
-        <f t="shared" ref="H4" si="2">(H3/30)*100</f>
+        <f t="shared" ref="H4" si="2">ROUND((H3/30)*100,2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="21">
-        <f t="shared" ref="J4" si="3">(J3/30)*100</f>
+        <f t="shared" ref="J4" si="3">ROUND((J3/30)*100,2)</f>
         <v>0</v>
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16">
-        <f>AVERAGE(B4:K4)</f>
-        <v>34</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="B5" s="18">
+        <f>ROUND(AVERAGE(B4:F4),2)</f>
+        <v>88.89</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -1632,12 +1600,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1645,12 +1607,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
